--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2641933716326317</v>
+        <v>-0.002690568168302336</v>
       </c>
       <c r="C2">
-        <v>0.9615739567439771</v>
+        <v>0.004128091691472499</v>
       </c>
       <c r="D2">
-        <v>0.8235777545935161</v>
+        <v>0.004352078251018196</v>
       </c>
       <c r="E2">
-        <v>0.03246444267054784</v>
+        <v>0.002712220482296088</v>
       </c>
       <c r="F2">
-        <v>0.3203612041502905</v>
+        <v>0.002392915788915873</v>
       </c>
       <c r="G2">
-        <v>-0.8471375820930563</v>
+        <v>-0.001597781232018104</v>
       </c>
       <c r="H2">
-        <v>-0.396404940798496</v>
+        <v>-0.0004252821844636631</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1648047407690063</v>
+        <v>-0.6257823637250234</v>
       </c>
       <c r="C3">
-        <v>0.2728388259770524</v>
+        <v>0.8291046896051892</v>
       </c>
       <c r="D3">
-        <v>0.2659851317150231</v>
+        <v>0.8404968974653656</v>
       </c>
       <c r="E3">
-        <v>0.150603063663684</v>
+        <v>0.1101317629632619</v>
       </c>
       <c r="F3">
-        <v>0.1311744507379716</v>
+        <v>0.4165006587930842</v>
       </c>
       <c r="G3">
-        <v>-0.06704781276243697</v>
+        <v>-0.4468760736301113</v>
       </c>
       <c r="H3">
-        <v>-0.05411780199185423</v>
+        <v>-0.3765482895023632</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3152400310163627</v>
+        <v>-0.599688867344247</v>
       </c>
       <c r="C4">
-        <v>0.5694522116716756</v>
+        <v>0.9034207034240638</v>
       </c>
       <c r="D4">
-        <v>0.5927598929181306</v>
+        <v>0.8389617913989502</v>
       </c>
       <c r="E4">
-        <v>0.1501669467484538</v>
+        <v>0.2228566530118012</v>
       </c>
       <c r="F4">
-        <v>0.2111367566678952</v>
+        <v>0.3457695745207599</v>
       </c>
       <c r="G4">
-        <v>-0.2452481115845858</v>
+        <v>-0.5222462645566047</v>
       </c>
       <c r="H4">
-        <v>-0.2347725939017385</v>
+        <v>-0.2897298993523429</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.002443355732183222</v>
+        <v>-0.3271867360853316</v>
       </c>
       <c r="C5">
-        <v>0.004395988983239839</v>
+        <v>0.5655169904638988</v>
       </c>
       <c r="D5">
-        <v>0.004064571743224447</v>
+        <v>0.3104226104282095</v>
       </c>
       <c r="E5">
-        <v>0.002504741268373499</v>
+        <v>0.2879469949927769</v>
       </c>
       <c r="F5">
-        <v>0.002680620511741695</v>
+        <v>0.20440280822883</v>
       </c>
       <c r="G5">
-        <v>-0.0007608099546661947</v>
+        <v>-0.2624775177655549</v>
       </c>
       <c r="H5">
-        <v>-0.001426451878034955</v>
+        <v>-0.2133625295940922</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.002092999082210353</v>
+        <v>-0.633957858163979</v>
       </c>
       <c r="C6">
-        <v>0.004074662019972091</v>
+        <v>1.093942095490653</v>
       </c>
       <c r="D6">
-        <v>0.003713132623605526</v>
+        <v>0.8564588252571304</v>
       </c>
       <c r="E6">
-        <v>0.002912151427797916</v>
+        <v>0.0319207656988826</v>
       </c>
       <c r="F6">
-        <v>0.00216019992419366</v>
+        <v>0.2447281514272138</v>
       </c>
       <c r="G6">
-        <v>-0.0007611210958797473</v>
+        <v>-0.4715551254748982</v>
       </c>
       <c r="H6">
-        <v>-0.001064180703168481</v>
+        <v>-0.3733618051920566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.362424956045447</v>
+        <v>-0.002668440946730635</v>
       </c>
       <c r="C7">
-        <v>1.319437444770493</v>
+        <v>0.004697490364969786</v>
       </c>
       <c r="D7">
-        <v>0.5525858703841195</v>
+        <v>0.003894149510608205</v>
       </c>
       <c r="E7">
-        <v>0.218255216807647</v>
+        <v>0.002374239298890807</v>
       </c>
       <c r="F7">
-        <v>0.080661755717504</v>
+        <v>0.002358307659904375</v>
       </c>
       <c r="G7">
-        <v>-0.8258668311032999</v>
+        <v>-0.001600679182992762</v>
       </c>
       <c r="H7">
-        <v>-0.2074877648353405</v>
+        <v>-0.0005910807927608888</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02531363783964368</v>
+        <v>-0.3951161197767489</v>
       </c>
       <c r="C8">
-        <v>0.04315045276890572</v>
+        <v>0.6630239648713435</v>
       </c>
       <c r="D8">
-        <v>0.03851352694176904</v>
+        <v>0.6145568630451856</v>
       </c>
       <c r="E8">
-        <v>0.02926446829888037</v>
+        <v>0.08777836410460765</v>
       </c>
       <c r="F8">
-        <v>0.02017859006039488</v>
+        <v>0.2990524806445741</v>
       </c>
       <c r="G8">
-        <v>-0.007356707740381957</v>
+        <v>-0.3304114246708901</v>
       </c>
       <c r="H8">
-        <v>-0.01659658455570025</v>
+        <v>-0.3328539635839188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3355226612425022</v>
+        <v>-0.1387582092529383</v>
       </c>
       <c r="C9">
-        <v>0.6180439901512101</v>
+        <v>0.2595911250921991</v>
       </c>
       <c r="D9">
-        <v>0.676235949461617</v>
+        <v>0.1674820750286928</v>
       </c>
       <c r="E9">
-        <v>0.1735412510080992</v>
+        <v>0.1411971116938184</v>
       </c>
       <c r="F9">
-        <v>0.4184818584743192</v>
+        <v>0.1197848955166829</v>
       </c>
       <c r="G9">
-        <v>-0.326368104608484</v>
+        <v>-0.09888453899742772</v>
       </c>
       <c r="H9">
-        <v>-0.2366922307244202</v>
+        <v>-0.04905565247261689</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2672033776992492</v>
+        <v>-0.003556459418431693</v>
       </c>
       <c r="C10">
-        <v>1.141389067272472</v>
+        <v>0.004932108339777488</v>
       </c>
       <c r="D10">
-        <v>0.8725817980917638</v>
+        <v>0.004360080778961995</v>
       </c>
       <c r="E10">
-        <v>0.03008503783941026</v>
+        <v>0.003457222892518058</v>
       </c>
       <c r="F10">
-        <v>0.03784389448543917</v>
+        <v>0.003147428437150374</v>
       </c>
       <c r="G10">
-        <v>-1.023978485331001</v>
+        <v>-0.001597548884207064</v>
       </c>
       <c r="H10">
-        <v>-0.53326825461321</v>
+        <v>-0.0007940013343651804</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.3200357438465155</v>
+        <v>-0.3061798519760581</v>
       </c>
       <c r="C11">
-        <v>1.047145757980748</v>
+        <v>0.4954549703895697</v>
       </c>
       <c r="D11">
-        <v>0.9112676706240667</v>
+        <v>0.4695413916815149</v>
       </c>
       <c r="E11">
-        <v>0.08655378215338493</v>
+        <v>0.2314705358646593</v>
       </c>
       <c r="F11">
-        <v>0.2380708073000313</v>
+        <v>0.1487986056855051</v>
       </c>
       <c r="G11">
-        <v>-1.080700428301647</v>
+        <v>-0.1890545014211334</v>
       </c>
       <c r="H11">
-        <v>-0.5751790505525245</v>
+        <v>-0.1841780742001027</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4145942376378947</v>
+        <v>-0.3464841329814373</v>
       </c>
       <c r="C12">
-        <v>1.040795101448095</v>
+        <v>0.6138201442569593</v>
       </c>
       <c r="D12">
-        <v>0.8947075971062564</v>
+        <v>0.4639205683755321</v>
       </c>
       <c r="E12">
-        <v>0.2307998411360665</v>
+        <v>0.1161551222994988</v>
       </c>
       <c r="F12">
-        <v>0.03276085540868525</v>
+        <v>0.1667653954355084</v>
       </c>
       <c r="G12">
-        <v>-0.7076421764509273</v>
+        <v>-0.2395505303830672</v>
       </c>
       <c r="H12">
-        <v>-0.5541293476491661</v>
+        <v>-0.3014540144507535</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1582340700120096</v>
+        <v>-0.1689975416689758</v>
       </c>
       <c r="C13">
-        <v>0.2544683121117337</v>
+        <v>0.2650342225790778</v>
       </c>
       <c r="D13">
-        <v>0.1955902967062329</v>
+        <v>0.2629694996603658</v>
       </c>
       <c r="E13">
-        <v>0.2202384776328966</v>
+        <v>0.1442907712783033</v>
       </c>
       <c r="F13">
-        <v>0.1262786146038541</v>
+        <v>0.07017457514478606</v>
       </c>
       <c r="G13">
-        <v>-0.06650938909679635</v>
+        <v>-0.09253352895504957</v>
       </c>
       <c r="H13">
-        <v>-0.08492083734773914</v>
+        <v>-0.07018757725286134</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.33173258101938</v>
+        <v>-0.002488531250018893</v>
       </c>
       <c r="C14">
-        <v>0.8982402598724987</v>
+        <v>0.004406513283381359</v>
       </c>
       <c r="D14">
-        <v>0.8129327254831386</v>
+        <v>0.003740573448399437</v>
       </c>
       <c r="E14">
-        <v>0.1925114514881725</v>
+        <v>0.002660728012242961</v>
       </c>
       <c r="F14">
-        <v>0.1653868293988779</v>
+        <v>0.002095132630861145</v>
       </c>
       <c r="G14">
-        <v>-0.6617007651366975</v>
+        <v>-0.001601170652103909</v>
       </c>
       <c r="H14">
-        <v>-0.4219211759001071</v>
+        <v>-0.0006289234599552848</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1887063046932489</v>
+        <v>-0.002585966115864731</v>
       </c>
       <c r="C15">
-        <v>0.8411843307698333</v>
+        <v>0.004824008963978734</v>
       </c>
       <c r="D15">
-        <v>0.6243133416376475</v>
+        <v>0.003459147733846331</v>
       </c>
       <c r="E15">
-        <v>0.1125475731710697</v>
+        <v>0.00174442420346027</v>
       </c>
       <c r="F15">
-        <v>0.1692275921434466</v>
+        <v>0.002637445620882326</v>
       </c>
       <c r="G15">
-        <v>-0.622057702048879</v>
+        <v>-0.001606492079061086</v>
       </c>
       <c r="H15">
-        <v>-0.355698995921337</v>
+        <v>-0.001391287247350109</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.266036348472565</v>
+        <v>-0.5735566976460517</v>
       </c>
       <c r="C16">
-        <v>1.131681304461473</v>
+        <v>1.069017061372088</v>
       </c>
       <c r="D16">
-        <v>0.5571228278610876</v>
+        <v>0.6661989263036484</v>
       </c>
       <c r="E16">
-        <v>0.1914418380569889</v>
+        <v>0.2546587193798911</v>
       </c>
       <c r="F16">
-        <v>0.04611046352097254</v>
+        <v>0.1676097975815029</v>
       </c>
       <c r="G16">
-        <v>-0.6552056365229456</v>
+        <v>-0.3531713360627046</v>
       </c>
       <c r="H16">
-        <v>-0.1631493341709792</v>
+        <v>-0.2275326377295321</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.002493030841092467</v>
+        <v>-0.002890249030244018</v>
       </c>
       <c r="C17">
-        <v>0.004614736437978697</v>
+        <v>0.005006484691651461</v>
       </c>
       <c r="D17">
-        <v>0.00442529938853093</v>
+        <v>0.003422736966513909</v>
       </c>
       <c r="E17">
-        <v>0.002318359257164364</v>
+        <v>0.002467017576078271</v>
       </c>
       <c r="F17">
-        <v>0.002253723258911129</v>
+        <v>0.00257747294787344</v>
       </c>
       <c r="G17">
-        <v>-0.0007622848062906757</v>
+        <v>-0.001600698289428147</v>
       </c>
       <c r="H17">
-        <v>-0.0009921920183970279</v>
+        <v>-0.001888013486270288</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3082621564626794</v>
+        <v>-0.5924699566224354</v>
       </c>
       <c r="C18">
-        <v>0.8402746420901885</v>
+        <v>1.134599751108854</v>
       </c>
       <c r="D18">
-        <v>0.8394232831688523</v>
+        <v>0.7712417429809776</v>
       </c>
       <c r="E18">
-        <v>0.2488473253052331</v>
+        <v>-0.03906730428631568</v>
       </c>
       <c r="F18">
-        <v>0.3413457865666036</v>
+        <v>0.2289741925425075</v>
       </c>
       <c r="G18">
-        <v>-0.6683155457166573</v>
+        <v>-0.4885019536768515</v>
       </c>
       <c r="H18">
-        <v>-0.1410589103656385</v>
+        <v>-0.262873866976879</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2611941295952468</v>
+        <v>-0.526416526245189</v>
       </c>
       <c r="C19">
-        <v>0.6260720857037111</v>
+        <v>0.842029094983493</v>
       </c>
       <c r="D19">
-        <v>0.7026065489894733</v>
+        <v>1.000350005274757</v>
       </c>
       <c r="E19">
-        <v>0.1740843270961068</v>
+        <v>0.06007282804980651</v>
       </c>
       <c r="F19">
-        <v>0.1717249066080117</v>
+        <v>0.003023612982086697</v>
       </c>
       <c r="G19">
-        <v>-0.4199834422953863</v>
+        <v>-0.3370393781823851</v>
       </c>
       <c r="H19">
-        <v>-0.217018202406705</v>
+        <v>-0.5173724701920888</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.2548127410336637</v>
+        <v>-0.1666934186588046</v>
       </c>
       <c r="C20">
-        <v>0.927938142540816</v>
+        <v>0.276521732433105</v>
       </c>
       <c r="D20">
-        <v>0.7609028256734294</v>
+        <v>0.2095309732346803</v>
       </c>
       <c r="E20">
-        <v>0.1399777130055601</v>
+        <v>0.1446636140690762</v>
       </c>
       <c r="F20">
-        <v>0.3298506772480133</v>
+        <v>0.111201668885052</v>
       </c>
       <c r="G20">
-        <v>-0.7410370499672748</v>
+        <v>-0.1044566632194702</v>
       </c>
       <c r="H20">
-        <v>-0.1740854770177441</v>
+        <v>-0.09980193281873923</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.002617898851723468</v>
+        <v>-0.19351712113568</v>
       </c>
       <c r="C21">
-        <v>0.005007653723427358</v>
+        <v>0.3075140790427838</v>
       </c>
       <c r="D21">
-        <v>0.003460424821538469</v>
+        <v>0.2345321959684213</v>
       </c>
       <c r="E21">
-        <v>0.00255334733235526</v>
+        <v>0.1453417682019463</v>
       </c>
       <c r="F21">
-        <v>0.003074890534948619</v>
+        <v>0.1130119764637029</v>
       </c>
       <c r="G21">
-        <v>-0.0007620800928616716</v>
+        <v>-0.1145353211610197</v>
       </c>
       <c r="H21">
-        <v>-0.001298236637287043</v>
+        <v>-0.06615648110060346</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3199663713461296</v>
+        <v>-0.5673575742547566</v>
       </c>
       <c r="C22">
-        <v>0.9818743416393335</v>
+        <v>1.059658625675683</v>
       </c>
       <c r="D22">
-        <v>0.7997580358829629</v>
+        <v>0.8857203291408846</v>
       </c>
       <c r="E22">
-        <v>0.1958510054794796</v>
+        <v>0.10895491094783</v>
       </c>
       <c r="F22">
-        <v>0.05170106887560709</v>
+        <v>0.1296945858590718</v>
       </c>
       <c r="G22">
-        <v>-0.6037261079840412</v>
+        <v>-0.3709478906028384</v>
       </c>
       <c r="H22">
-        <v>-0.4335703261788196</v>
+        <v>-0.3561398063267212</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.002923019503290884</v>
+        <v>-0.4503636391611653</v>
       </c>
       <c r="C23">
-        <v>0.005325825344241255</v>
+        <v>0.9030177512635241</v>
       </c>
       <c r="D23">
-        <v>0.003754303020380921</v>
+        <v>0.7927533098579302</v>
       </c>
       <c r="E23">
-        <v>0.002528040327610719</v>
+        <v>0.02011682841624922</v>
       </c>
       <c r="F23">
-        <v>0.002957121503792731</v>
+        <v>0.1105671180053812</v>
       </c>
       <c r="G23">
-        <v>-0.0007617173348841833</v>
+        <v>-0.3179889522475963</v>
       </c>
       <c r="H23">
-        <v>-0.001710628886151879</v>
+        <v>-0.3095775522611941</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2238023983539249</v>
+        <v>-0.5068448010820918</v>
       </c>
       <c r="C24">
-        <v>0.8260650959440452</v>
+        <v>0.7725920502498116</v>
       </c>
       <c r="D24">
-        <v>0.5807441722974686</v>
+        <v>0.7890371571270262</v>
       </c>
       <c r="E24">
-        <v>0.2879504645503114</v>
+        <v>0.1542333311169147</v>
       </c>
       <c r="F24">
-        <v>0.2209011778641058</v>
+        <v>0.395664180707448</v>
       </c>
       <c r="G24">
-        <v>-0.6854835260070979</v>
+        <v>-0.5136834095996503</v>
       </c>
       <c r="H24">
-        <v>-0.372372923684369</v>
+        <v>-0.3857780814348507</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.317543943438385</v>
+        <v>-0.4948100677439519</v>
       </c>
       <c r="C25">
-        <v>0.6812360783508539</v>
+        <v>0.8987023984215879</v>
       </c>
       <c r="D25">
-        <v>0.6221715788520392</v>
+        <v>0.7321807212380423</v>
       </c>
       <c r="E25">
-        <v>0.2520601632470557</v>
+        <v>0.1627532213912465</v>
       </c>
       <c r="F25">
-        <v>0.172188256133638</v>
+        <v>0.1832361599836658</v>
       </c>
       <c r="G25">
-        <v>-0.3151567399287581</v>
+        <v>-0.3691383787320379</v>
       </c>
       <c r="H25">
-        <v>-0.2936877409923314</v>
+        <v>-0.3266011454509792</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1508163584648703</v>
+        <v>-0.1555572167371397</v>
       </c>
       <c r="C26">
-        <v>0.2746737560947616</v>
+        <v>0.241926186696629</v>
       </c>
       <c r="D26">
-        <v>0.2230181936086117</v>
+        <v>0.2111980138168929</v>
       </c>
       <c r="E26">
-        <v>0.1655761801932288</v>
+        <v>0.1765679393740374</v>
       </c>
       <c r="F26">
-        <v>0.08487080352967991</v>
+        <v>0.09976131671671434</v>
       </c>
       <c r="G26">
-        <v>-0.05797944548921539</v>
+        <v>-0.1087489696664562</v>
       </c>
       <c r="H26">
-        <v>-0.09352881204905918</v>
+        <v>-0.09022185479295328</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.2282175976314595</v>
+        <v>-0.403772426491641</v>
       </c>
       <c r="C27">
-        <v>0.9199624935920923</v>
+        <v>0.7348871198918235</v>
       </c>
       <c r="D27">
-        <v>0.7480296335611333</v>
+        <v>0.4124555060478674</v>
       </c>
       <c r="E27">
-        <v>0.126888368611517</v>
+        <v>0.1747179730916066</v>
       </c>
       <c r="F27">
-        <v>0.0724776202372593</v>
+        <v>0.1651465425880382</v>
       </c>
       <c r="G27">
-        <v>-0.6457819147273884</v>
+        <v>-0.2338757870826483</v>
       </c>
       <c r="H27">
-        <v>-0.127831689185921</v>
+        <v>-0.1869260856685472</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3061103147843392</v>
+        <v>-0.002807792049592463</v>
       </c>
       <c r="C28">
-        <v>0.7659271446111119</v>
+        <v>0.004463922061462965</v>
       </c>
       <c r="D28">
-        <v>0.7216973834529657</v>
+        <v>0.004188916732021377</v>
       </c>
       <c r="E28">
-        <v>0.1143136733356343</v>
+        <v>0.002894990874570337</v>
       </c>
       <c r="F28">
-        <v>0.09465098120333729</v>
+        <v>0.002163336870856397</v>
       </c>
       <c r="G28">
-        <v>-0.4210584520230679</v>
+        <v>-0.001598267754834092</v>
       </c>
       <c r="H28">
-        <v>-0.3299532904761313</v>
+        <v>-0.0009628698494759956</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3274872406379616</v>
+        <v>-0.7164452748583823</v>
       </c>
       <c r="C29">
-        <v>1.174174360450179</v>
+        <v>1.083949509100706</v>
       </c>
       <c r="D29">
-        <v>0.6950602706680142</v>
+        <v>1.033872753264027</v>
       </c>
       <c r="E29">
-        <v>0.1322035662217408</v>
+        <v>0.02120470518457456</v>
       </c>
       <c r="F29">
-        <v>0.2566017868060019</v>
+        <v>0.2606190703135116</v>
       </c>
       <c r="G29">
-        <v>-0.9213324794938073</v>
+        <v>-0.4366527719441477</v>
       </c>
       <c r="H29">
-        <v>-0.3119033742190188</v>
+        <v>-0.2254129188685641</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.336664421632741</v>
+        <v>-0.6183003602807381</v>
       </c>
       <c r="C30">
-        <v>1.155344901218871</v>
+        <v>0.8521230393003464</v>
       </c>
       <c r="D30">
-        <v>0.8697282520957451</v>
+        <v>0.8747093777554407</v>
       </c>
       <c r="E30">
-        <v>0.1753162908208913</v>
+        <v>0.1482079702948537</v>
       </c>
       <c r="F30">
-        <v>0.03611681687673707</v>
+        <v>0.4740824934308108</v>
       </c>
       <c r="G30">
-        <v>-0.9487455813192567</v>
+        <v>-0.4444077978831046</v>
       </c>
       <c r="H30">
-        <v>-0.4275073735147498</v>
+        <v>-0.4446538515765333</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.3209718413481517</v>
+        <v>-0.003001456837114383</v>
       </c>
       <c r="C31">
-        <v>0.8044969997648378</v>
+        <v>0.00492881321302671</v>
       </c>
       <c r="D31">
-        <v>0.532695974626226</v>
+        <v>0.003421758578792981</v>
       </c>
       <c r="E31">
-        <v>0.2734668601683732</v>
+        <v>0.003113560451928732</v>
       </c>
       <c r="F31">
-        <v>0.01690539917987178</v>
+        <v>0.002631281708678636</v>
       </c>
       <c r="G31">
-        <v>-0.2504218312726965</v>
+        <v>-0.001603225602176183</v>
       </c>
       <c r="H31">
-        <v>0.01963143247070736</v>
+        <v>-0.001597759913594778</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.282897323852114</v>
+        <v>-0.7451134625757033</v>
       </c>
       <c r="C32">
-        <v>0.5102491144447102</v>
+        <v>1.019531116468791</v>
       </c>
       <c r="D32">
-        <v>0.4952554071438722</v>
+        <v>0.8837311035565648</v>
       </c>
       <c r="E32">
-        <v>0.1972160300095967</v>
+        <v>0.1675109742360648</v>
       </c>
       <c r="F32">
-        <v>0.1863189296282628</v>
+        <v>0.5922424823214406</v>
       </c>
       <c r="G32">
-        <v>-0.1868570957287771</v>
+        <v>-0.4721366583461414</v>
       </c>
       <c r="H32">
-        <v>-0.3543252312955297</v>
+        <v>-0.4538933340914482</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1624635750265291</v>
+        <v>-0.187315835579049</v>
       </c>
       <c r="C33">
-        <v>0.9830303034147866</v>
+        <v>0.2764809357507219</v>
       </c>
       <c r="D33">
-        <v>0.7297284469296325</v>
+        <v>0.2740631868739634</v>
       </c>
       <c r="E33">
-        <v>0.07489095410418929</v>
+        <v>0.125366731611446</v>
       </c>
       <c r="F33">
-        <v>0.07736626506329843</v>
+        <v>0.1083382838690269</v>
       </c>
       <c r="G33">
-        <v>-0.8396915440826453</v>
+        <v>-0.1070204623004061</v>
       </c>
       <c r="H33">
-        <v>-0.3894494440863824</v>
+        <v>-0.08106989965056965</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.4079147039689036</v>
+        <v>-0.5533715606632595</v>
       </c>
       <c r="C34">
-        <v>0.6061879267492961</v>
+        <v>0.8310025938570127</v>
       </c>
       <c r="D34">
-        <v>0.5545537069167618</v>
+        <v>0.813891718128266</v>
       </c>
       <c r="E34">
-        <v>0.312799572939408</v>
+        <v>0.07987906000453548</v>
       </c>
       <c r="F34">
-        <v>0.3077169889099451</v>
+        <v>0.3321865036408151</v>
       </c>
       <c r="G34">
-        <v>-0.2065659416088642</v>
+        <v>-0.4077641631717775</v>
       </c>
       <c r="H34">
-        <v>-0.03953093428443313</v>
+        <v>-0.2718669585571405</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.00335825089412051</v>
+        <v>-0.02743271931022731</v>
       </c>
       <c r="C35">
-        <v>0.004708771767209702</v>
+        <v>0.04055631025796121</v>
       </c>
       <c r="D35">
-        <v>0.004679652897807979</v>
+        <v>0.04171080835815068</v>
       </c>
       <c r="E35">
-        <v>0.00372003253527045</v>
+        <v>0.02870858118524543</v>
       </c>
       <c r="F35">
-        <v>0.003188154346998443</v>
+        <v>0.02022410438116996</v>
       </c>
       <c r="G35">
-        <v>-0.0007606192048997313</v>
+        <v>-0.01501502955620211</v>
       </c>
       <c r="H35">
-        <v>-0.0008741260206802164</v>
+        <v>-0.00576923658916518</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.3357329423205843</v>
+        <v>-0.002594470244075109</v>
       </c>
       <c r="C36">
-        <v>0.8447480138806789</v>
+        <v>0.005169357962706051</v>
       </c>
       <c r="D36">
-        <v>0.8740732367469045</v>
+        <v>0.00274740113433487</v>
       </c>
       <c r="E36">
-        <v>0.03264468155430542</v>
+        <v>0.002406543743752082</v>
       </c>
       <c r="F36">
-        <v>0.306460410454337</v>
+        <v>0.002088304681620248</v>
       </c>
       <c r="G36">
-        <v>-0.6026837611245643</v>
+        <v>-0.001603241421316931</v>
       </c>
       <c r="H36">
-        <v>-0.4784894777941718</v>
+        <v>-0.001716521331788714</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.3648124833274508</v>
+        <v>-0.1665999645519126</v>
       </c>
       <c r="C37">
-        <v>0.9413254382101635</v>
+        <v>0.2505520879334571</v>
       </c>
       <c r="D37">
-        <v>0.9016515745321696</v>
+        <v>0.2275587053923996</v>
       </c>
       <c r="E37">
-        <v>0.08282693959997341</v>
+        <v>0.1077458541532237</v>
       </c>
       <c r="F37">
-        <v>0.3769735710329573</v>
+        <v>0.1633861851506312</v>
       </c>
       <c r="G37">
-        <v>-0.7135146257816795</v>
+        <v>-0.1031485912218838</v>
       </c>
       <c r="H37">
-        <v>-0.3346500420246711</v>
+        <v>-0.09410775275712203</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.2636431453165695</v>
+        <v>-0.5614804185137061</v>
       </c>
       <c r="C38">
-        <v>1.20025245401656</v>
+        <v>0.9800053556616107</v>
       </c>
       <c r="D38">
-        <v>0.9127887460091988</v>
+        <v>0.8306823763712056</v>
       </c>
       <c r="E38">
-        <v>0.05343909522239541</v>
+        <v>0.08314028364954305</v>
       </c>
       <c r="F38">
-        <v>-0.1082812279006517</v>
+        <v>0.3008936943553017</v>
       </c>
       <c r="G38">
-        <v>-1.169820958521459</v>
+        <v>-0.3652824517772824</v>
       </c>
       <c r="H38">
-        <v>-0.6330073073164102</v>
+        <v>-0.3116704404870532</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.4630588408499609</v>
+        <v>-0.1920426258925731</v>
       </c>
       <c r="C39">
-        <v>0.8755150000339923</v>
+        <v>0.3012368755669009</v>
       </c>
       <c r="D39">
-        <v>0.956962425037178</v>
+        <v>0.2367341194684209</v>
       </c>
       <c r="E39">
-        <v>-0.01992204928819263</v>
+        <v>0.11300857622104</v>
       </c>
       <c r="F39">
-        <v>0.6109488667261264</v>
+        <v>0.1485113204539838</v>
       </c>
       <c r="G39">
-        <v>-0.6914253226761731</v>
+        <v>-0.1000040718536097</v>
       </c>
       <c r="H39">
-        <v>-0.3650051043357886</v>
+        <v>-0.07952420673868814</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.3743971625371721</v>
+        <v>-0.5205479927825561</v>
       </c>
       <c r="C40">
-        <v>1.410336808666308</v>
+        <v>0.8560677420061895</v>
       </c>
       <c r="D40">
-        <v>0.6687533809827054</v>
+        <v>0.6002316018532262</v>
       </c>
       <c r="E40">
-        <v>-0.01761373842619561</v>
+        <v>0.02622359689028041</v>
       </c>
       <c r="F40">
-        <v>0.1461607988746778</v>
+        <v>0.3516599084662752</v>
       </c>
       <c r="G40">
-        <v>-0.8610910551060537</v>
+        <v>-0.3446533737558481</v>
       </c>
       <c r="H40">
-        <v>-0.2436325869957421</v>
+        <v>-0.1843678608889678</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2611627742619755</v>
+        <v>-0.3593695716674434</v>
       </c>
       <c r="C41">
-        <v>1.035082397007907</v>
+        <v>0.50783311542541</v>
       </c>
       <c r="D41">
-        <v>0.8570705542537804</v>
+        <v>0.4165553188736035</v>
       </c>
       <c r="E41">
-        <v>0.09346457486303456</v>
+        <v>0.154221795067338</v>
       </c>
       <c r="F41">
-        <v>0.06102385870539449</v>
+        <v>0.323543927045809</v>
       </c>
       <c r="G41">
-        <v>-0.8819238985590823</v>
+        <v>-0.2431398625984576</v>
       </c>
       <c r="H41">
-        <v>-0.3719279175412155</v>
+        <v>-0.3152098333718962</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.3683971483001879</v>
+        <v>-0.3270501853549935</v>
       </c>
       <c r="C42">
-        <v>0.6623980829392611</v>
+        <v>0.5933164007825731</v>
       </c>
       <c r="D42">
-        <v>0.844124867457444</v>
+        <v>0.5166050216372856</v>
       </c>
       <c r="E42">
-        <v>0.1565272913452496</v>
+        <v>0.1029362295803173</v>
       </c>
       <c r="F42">
-        <v>0.4707935668806451</v>
+        <v>0.1496739232404193</v>
       </c>
       <c r="G42">
-        <v>-0.6238233289720703</v>
+        <v>-0.2606377786937799</v>
       </c>
       <c r="H42">
-        <v>-0.487447922479513</v>
+        <v>-0.08787465504022056</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.002522171279228568</v>
+        <v>-0.4881230054893563</v>
       </c>
       <c r="C43">
-        <v>0.004814245912297007</v>
+        <v>0.843721402178176</v>
       </c>
       <c r="D43">
-        <v>0.004212947896153577</v>
+        <v>0.8982394516241118</v>
       </c>
       <c r="E43">
-        <v>0.002654786481696756</v>
+        <v>-0.01992629010615529</v>
       </c>
       <c r="F43">
-        <v>0.001984310628708794</v>
+        <v>0.1935158936482799</v>
       </c>
       <c r="G43">
-        <v>-0.0007610278241250988</v>
+        <v>-0.3513832752523466</v>
       </c>
       <c r="H43">
-        <v>-0.0009729731408214528</v>
+        <v>-0.3476720344257627</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4163398621915873</v>
+        <v>-0.3721668086949441</v>
       </c>
       <c r="C44">
-        <v>1.331074449640843</v>
+        <v>0.5245673815980374</v>
       </c>
       <c r="D44">
-        <v>0.7871940988881156</v>
+        <v>0.5304383272024671</v>
       </c>
       <c r="E44">
-        <v>0.1772267573906847</v>
+        <v>0.2180728005770776</v>
       </c>
       <c r="F44">
-        <v>0.003758083796234881</v>
+        <v>0.1962769915939014</v>
       </c>
       <c r="G44">
-        <v>-0.876552034946296</v>
+        <v>-0.2052836564667449</v>
       </c>
       <c r="H44">
-        <v>-0.383729566839809</v>
+        <v>-0.2613622861804492</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.002552374157926694</v>
+        <v>-0.3449403043084707</v>
       </c>
       <c r="C45">
-        <v>0.004673595670438623</v>
+        <v>0.6310905441730226</v>
       </c>
       <c r="D45">
-        <v>0.004219107569031652</v>
+        <v>0.412329901432744</v>
       </c>
       <c r="E45">
-        <v>0.002462920149258255</v>
+        <v>0.1870092647558743</v>
       </c>
       <c r="F45">
-        <v>0.002368825255363993</v>
+        <v>0.1910763822673854</v>
       </c>
       <c r="G45">
-        <v>-0.000760831226387098</v>
+        <v>-0.2722236630505174</v>
       </c>
       <c r="H45">
-        <v>-0.001455991483149533</v>
+        <v>-0.2289752147632442</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4657365754918523</v>
+        <v>-0.1442144401928064</v>
       </c>
       <c r="C46">
-        <v>1.167189421102576</v>
+        <v>0.2552989330986496</v>
       </c>
       <c r="D46">
-        <v>0.9822066652297444</v>
+        <v>0.1623411770796231</v>
       </c>
       <c r="E46">
-        <v>0.07790967240767877</v>
+        <v>0.1768473278214676</v>
       </c>
       <c r="F46">
-        <v>0.4138254275373551</v>
+        <v>0.1080782573277659</v>
       </c>
       <c r="G46">
-        <v>-0.9607557203826792</v>
+        <v>-0.1042816964825747</v>
       </c>
       <c r="H46">
-        <v>-0.1411330026302116</v>
+        <v>-0.07353246257514907</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.178788009119884</v>
+        <v>-0.1341450860259854</v>
       </c>
       <c r="C47">
-        <v>0.9737694064338578</v>
+        <v>0.2443094817017225</v>
       </c>
       <c r="D47">
-        <v>0.690660385541765</v>
+        <v>0.2144612681861155</v>
       </c>
       <c r="E47">
-        <v>0.1180699081829705</v>
+        <v>0.1220090981390801</v>
       </c>
       <c r="F47">
-        <v>-0.02748827722500944</v>
+        <v>0.08572275257976036</v>
       </c>
       <c r="G47">
-        <v>-0.8299176844476722</v>
+        <v>-0.09859633350590334</v>
       </c>
       <c r="H47">
-        <v>-0.3058521474572139</v>
+        <v>-0.07533887983135136</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.002418165822189326</v>
+        <v>-0.003212198720069487</v>
       </c>
       <c r="C48">
-        <v>0.004745576023547588</v>
+        <v>0.005010862378621484</v>
       </c>
       <c r="D48">
-        <v>0.004112001745153041</v>
+        <v>0.003846268110770467</v>
       </c>
       <c r="E48">
-        <v>0.002686111346064574</v>
+        <v>0.003195141704274792</v>
       </c>
       <c r="F48">
-        <v>0.001929858125329654</v>
+        <v>0.002877141350800544</v>
       </c>
       <c r="G48">
-        <v>-0.0007611690168841521</v>
+        <v>-0.001600150193021595</v>
       </c>
       <c r="H48">
-        <v>-0.0007070227919771533</v>
+        <v>-0.0009258526524898328</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.00335145347843284</v>
+        <v>-0.002430965730500021</v>
       </c>
       <c r="C49">
-        <v>0.006196112105260731</v>
+        <v>0.004636834250954133</v>
       </c>
       <c r="D49">
-        <v>0.003875371614529356</v>
+        <v>0.003634624283725631</v>
       </c>
       <c r="E49">
-        <v>0.002577630437408197</v>
+        <v>0.002466566036578742</v>
       </c>
       <c r="F49">
-        <v>0.002709902243168695</v>
+        <v>0.001732434741910546</v>
       </c>
       <c r="G49">
-        <v>-0.0007614972193047403</v>
+        <v>-0.001603409343184145</v>
       </c>
       <c r="H49">
-        <v>-0.001190071920303975</v>
+        <v>-0.0005546227624317159</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2752819905741675</v>
+        <v>-0.003002080355299706</v>
       </c>
       <c r="C50">
-        <v>0.7502334424952809</v>
+        <v>0.004677129177010819</v>
       </c>
       <c r="D50">
-        <v>0.6636439296034418</v>
+        <v>0.003668968366543139</v>
       </c>
       <c r="E50">
-        <v>0.2645200332102793</v>
+        <v>0.002629805133621066</v>
       </c>
       <c r="F50">
-        <v>0.22458735993006</v>
+        <v>0.003415033368553162</v>
       </c>
       <c r="G50">
-        <v>-0.6384053305165681</v>
+        <v>-0.00160214546398211</v>
       </c>
       <c r="H50">
-        <v>-0.2806120260669941</v>
+        <v>-0.001124812800981531</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.002061415790112221</v>
+        <v>-0.003448777559761447</v>
       </c>
       <c r="C51">
-        <v>0.004503551532752574</v>
+        <v>0.005011707113554208</v>
       </c>
       <c r="D51">
-        <v>0.003681931387648524</v>
+        <v>0.004301004694645317</v>
       </c>
       <c r="E51">
-        <v>0.002087989325931823</v>
+        <v>0.003106753964132596</v>
       </c>
       <c r="F51">
-        <v>0.002008213159839848</v>
+        <v>0.003185874642798785</v>
       </c>
       <c r="G51">
-        <v>-0.0007630213173983062</v>
+        <v>-0.001603030860110226</v>
       </c>
       <c r="H51">
-        <v>-0.001334151191038058</v>
+        <v>-0.0006064693377118901</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.02347364851614281</v>
+        <v>-0.5780601985746159</v>
       </c>
       <c r="C52">
-        <v>0.0371558387647543</v>
+        <v>0.8425103084885299</v>
       </c>
       <c r="D52">
-        <v>0.04576729148812141</v>
+        <v>0.6232685131096707</v>
       </c>
       <c r="E52">
-        <v>0.02395341115664252</v>
+        <v>0.1358616657302882</v>
       </c>
       <c r="F52">
-        <v>0.02318602326782971</v>
+        <v>0.3763326062867506</v>
       </c>
       <c r="G52">
-        <v>-0.007466688378037324</v>
+        <v>-0.366275459911393</v>
       </c>
       <c r="H52">
-        <v>-0.001971393520792005</v>
+        <v>-0.1721101960055942</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1432973943952437</v>
+        <v>-0.3439913587270501</v>
       </c>
       <c r="C53">
-        <v>0.2768712415075068</v>
+        <v>0.5404484264225164</v>
       </c>
       <c r="D53">
-        <v>0.2191281243950197</v>
+        <v>0.4572677622257103</v>
       </c>
       <c r="E53">
-        <v>0.1682650588093783</v>
+        <v>0.3155627044812279</v>
       </c>
       <c r="F53">
-        <v>0.09895851759890124</v>
+        <v>0.1689083076078935</v>
       </c>
       <c r="G53">
-        <v>-0.05814205901918708</v>
+        <v>-0.2162021917713804</v>
       </c>
       <c r="H53">
-        <v>-0.08030104880588913</v>
+        <v>-0.2067734486373284</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3325353351555103</v>
+        <v>-0.1643066650085233</v>
       </c>
       <c r="C54">
-        <v>0.6773274149428571</v>
+        <v>0.2653767559502005</v>
       </c>
       <c r="D54">
-        <v>0.6448325716312155</v>
+        <v>0.2585398151216178</v>
       </c>
       <c r="E54">
-        <v>0.1127696797002444</v>
+        <v>0.1153228154960698</v>
       </c>
       <c r="F54">
-        <v>0.2822836662941638</v>
+        <v>0.1115084107307587</v>
       </c>
       <c r="G54">
-        <v>-0.2855800691841798</v>
+        <v>-0.1054949784349064</v>
       </c>
       <c r="H54">
-        <v>-0.3543620806932632</v>
+        <v>-0.024471351879097</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.169852135164236</v>
+        <v>-0.002812310841257017</v>
       </c>
       <c r="C55">
-        <v>0.8480677363492701</v>
+        <v>0.004566369783261648</v>
       </c>
       <c r="D55">
-        <v>0.754519402529614</v>
+        <v>0.004072251242324109</v>
       </c>
       <c r="E55">
-        <v>0.007468219980169447</v>
+        <v>0.002723072297064478</v>
       </c>
       <c r="F55">
-        <v>0.1379235414304892</v>
+        <v>0.002490565319675921</v>
       </c>
       <c r="G55">
-        <v>-0.6931567898200443</v>
+        <v>-0.001598831202649156</v>
       </c>
       <c r="H55">
-        <v>-0.2006846600627401</v>
+        <v>-0.0007078564757539586</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.3178797199899278</v>
+        <v>-0.5419610517176339</v>
       </c>
       <c r="C56">
-        <v>0.5331267194145093</v>
+        <v>1.023512490971562</v>
       </c>
       <c r="D56">
-        <v>0.5695531113951585</v>
+        <v>0.7331329714088989</v>
       </c>
       <c r="E56">
-        <v>0.3120909871451636</v>
+        <v>0.163520023697796</v>
       </c>
       <c r="F56">
-        <v>0.1082732602459245</v>
+        <v>0.2171681772860483</v>
       </c>
       <c r="G56">
-        <v>-0.2281726251065358</v>
+        <v>-0.4616436990704559</v>
       </c>
       <c r="H56">
-        <v>-0.1782657726784565</v>
+        <v>-0.2392264223424879</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4683179566193129</v>
+        <v>-0.02689177328398418</v>
       </c>
       <c r="C57">
-        <v>1.155496678876146</v>
+        <v>0.04247616062196456</v>
       </c>
       <c r="D57">
-        <v>0.7339593709463016</v>
+        <v>0.03816337359178976</v>
       </c>
       <c r="E57">
-        <v>0.3296516363489547</v>
+        <v>0.02313477208907581</v>
       </c>
       <c r="F57">
-        <v>0.2597021315902903</v>
+        <v>0.02445665482441065</v>
       </c>
       <c r="G57">
-        <v>-0.7163662418664795</v>
+        <v>-0.01496634790805867</v>
       </c>
       <c r="H57">
-        <v>-0.02856012510538347</v>
+        <v>-0.01336290298397407</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.2590817103860614</v>
+        <v>-0.003624100622613547</v>
       </c>
       <c r="C58">
-        <v>0.6476352437650663</v>
+        <v>0.00474900050575299</v>
       </c>
       <c r="D58">
-        <v>0.5690967746401211</v>
+        <v>0.004881784180131114</v>
       </c>
       <c r="E58">
-        <v>0.2130352803953989</v>
+        <v>0.003023889706652181</v>
       </c>
       <c r="F58">
-        <v>0.2609584115465159</v>
+        <v>0.003272422510976767</v>
       </c>
       <c r="G58">
-        <v>-0.3548125251718979</v>
+        <v>-0.001600064092574981</v>
       </c>
       <c r="H58">
-        <v>-0.2222880794041443</v>
+        <v>-0.0009700429957515232</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1145198316135744</v>
+        <v>-0.003672928172171882</v>
       </c>
       <c r="C59">
-        <v>0.2615986265694566</v>
+        <v>0.005811504637903797</v>
       </c>
       <c r="D59">
-        <v>0.2037926767869262</v>
+        <v>0.003918814508506562</v>
       </c>
       <c r="E59">
-        <v>0.1247167427072565</v>
+        <v>0.003367409629354992</v>
       </c>
       <c r="F59">
-        <v>0.1052799832496045</v>
+        <v>0.002311049559226554</v>
       </c>
       <c r="G59">
-        <v>-0.06718652244653868</v>
+        <v>-0.001598420932269297</v>
       </c>
       <c r="H59">
-        <v>-0.05263737954372473</v>
+        <v>-0.001507880822907163</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2026517723003602</v>
+        <v>-0.5649451036254205</v>
       </c>
       <c r="C60">
-        <v>0.844520204119932</v>
+        <v>1.026955437261126</v>
       </c>
       <c r="D60">
-        <v>0.946822005012647</v>
+        <v>0.7657786202730202</v>
       </c>
       <c r="E60">
-        <v>-0.1488481906028596</v>
+        <v>0.07778246811104676</v>
       </c>
       <c r="F60">
-        <v>0.02927155478000701</v>
+        <v>0.201892472356419</v>
       </c>
       <c r="G60">
-        <v>-0.8341979771847009</v>
+        <v>-0.3868271616600621</v>
       </c>
       <c r="H60">
-        <v>-0.5246007305493249</v>
+        <v>-0.148483613516991</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002834805762265582</v>
+        <v>-0.5626435980402978</v>
       </c>
       <c r="C61">
-        <v>0.00465984079350538</v>
+        <v>1.165531982497857</v>
       </c>
       <c r="D61">
-        <v>0.00426268927265088</v>
+        <v>0.6964780229386336</v>
       </c>
       <c r="E61">
-        <v>0.002547752206033906</v>
+        <v>0.01108746797903864</v>
       </c>
       <c r="F61">
-        <v>0.003430949503913307</v>
+        <v>0.05076594420866143</v>
       </c>
       <c r="G61">
-        <v>-0.0007630406535318029</v>
+        <v>-0.4656492849904021</v>
       </c>
       <c r="H61">
-        <v>-0.0008480949624412983</v>
+        <v>-0.140872817341654</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2591110407996095</v>
+        <v>-0.03392370308632293</v>
       </c>
       <c r="C62">
-        <v>1.101386299447947</v>
+        <v>0.05055378519641739</v>
       </c>
       <c r="D62">
-        <v>0.8691441082174604</v>
+        <v>0.04110375462563387</v>
       </c>
       <c r="E62">
-        <v>0.06016374795386562</v>
+        <v>0.02304624575185259</v>
       </c>
       <c r="F62">
-        <v>0.2302973798000076</v>
+        <v>0.0289899966066256</v>
       </c>
       <c r="G62">
-        <v>-1.095005024890132</v>
+        <v>-0.01525785758479333</v>
       </c>
       <c r="H62">
-        <v>-0.44556747871299</v>
+        <v>-0.01321884687013989</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.2347704069158269</v>
+        <v>-0.03596026390166331</v>
       </c>
       <c r="C63">
-        <v>0.7429877488703946</v>
+        <v>0.04908600545150036</v>
       </c>
       <c r="D63">
-        <v>0.5057116365326171</v>
+        <v>0.04804550157228333</v>
       </c>
       <c r="E63">
-        <v>0.2142851273112059</v>
+        <v>0.01899104908156524</v>
       </c>
       <c r="F63">
-        <v>0.1272887021568286</v>
+        <v>0.03227020764143698</v>
       </c>
       <c r="G63">
-        <v>-0.4168923917014201</v>
+        <v>-0.01510120886763089</v>
       </c>
       <c r="H63">
-        <v>-0.2363173497075973</v>
+        <v>-0.0034936080827805</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.2701832393626795</v>
+        <v>-0.6599136796889026</v>
       </c>
       <c r="C64">
-        <v>0.6523676587653753</v>
+        <v>1.277908119226217</v>
       </c>
       <c r="D64">
-        <v>0.5663525333700256</v>
+        <v>0.8481942811983068</v>
       </c>
       <c r="E64">
-        <v>0.1336805748630461</v>
+        <v>0.1238778939836847</v>
       </c>
       <c r="F64">
-        <v>0.2540580360977975</v>
+        <v>0.08598860774628499</v>
       </c>
       <c r="G64">
-        <v>-0.2959863994581523</v>
+        <v>-0.2580312204991308</v>
       </c>
       <c r="H64">
-        <v>-0.2338042249846777</v>
+        <v>0.03597535717532716</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.3789042185043615</v>
+        <v>-0.628960867785083</v>
       </c>
       <c r="C65">
-        <v>1.215921297397655</v>
+        <v>1.113984317488115</v>
       </c>
       <c r="D65">
-        <v>0.6120856295184752</v>
+        <v>0.8036941769921201</v>
       </c>
       <c r="E65">
-        <v>0.1425556163268462</v>
+        <v>0.121084038793626</v>
       </c>
       <c r="F65">
-        <v>0.2638049548624647</v>
+        <v>0.2662792735718127</v>
       </c>
       <c r="G65">
-        <v>-0.7856784511744213</v>
+        <v>-0.4152088092901978</v>
       </c>
       <c r="H65">
-        <v>-0.2653139028407716</v>
+        <v>-0.103050427825257</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.383506913174319</v>
+        <v>-0.5257203367474581</v>
       </c>
       <c r="C66">
-        <v>0.9650487963541041</v>
+        <v>0.875537555712024</v>
       </c>
       <c r="D66">
-        <v>0.9327487368758288</v>
+        <v>0.8951907070495181</v>
       </c>
       <c r="E66">
-        <v>0.1565850039902993</v>
+        <v>-0.008823175653283489</v>
       </c>
       <c r="F66">
-        <v>0.1454982591816775</v>
+        <v>0.06747753088392926</v>
       </c>
       <c r="G66">
-        <v>-0.6289871288582529</v>
+        <v>-0.4128404040190176</v>
       </c>
       <c r="H66">
-        <v>-0.2754382227657516</v>
+        <v>-0.43266147185981</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.2419588028148099</v>
+        <v>-0.003205450576861554</v>
       </c>
       <c r="C67">
-        <v>0.9821559269432477</v>
+        <v>0.004856826824445181</v>
       </c>
       <c r="D67">
-        <v>0.9272492433183793</v>
+        <v>0.004451150652123878</v>
       </c>
       <c r="E67">
-        <v>-0.07333960798157158</v>
+        <v>0.002435820337385279</v>
       </c>
       <c r="F67">
-        <v>0.3354766138540251</v>
+        <v>0.002956605991011849</v>
       </c>
       <c r="G67">
-        <v>-1.058379639673245</v>
+        <v>-0.001603497565961536</v>
       </c>
       <c r="H67">
-        <v>-0.3503806226403047</v>
+        <v>-0.001036252945071082</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.4012978600603598</v>
+        <v>-0.3756096715538938</v>
       </c>
       <c r="C68">
-        <v>0.8788476832376125</v>
+        <v>0.6489785292235499</v>
       </c>
       <c r="D68">
-        <v>0.9352088821823032</v>
+        <v>0.4932099011796321</v>
       </c>
       <c r="E68">
-        <v>0.08387211909384852</v>
+        <v>0.2116008056901621</v>
       </c>
       <c r="F68">
-        <v>0.2121204515635366</v>
+        <v>0.1922012102930752</v>
       </c>
       <c r="G68">
-        <v>-0.5194290841595846</v>
+        <v>-0.3034744132460913</v>
       </c>
       <c r="H68">
-        <v>-0.4017410074914637</v>
+        <v>-0.3017952680064104</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1382191439491156</v>
+        <v>-0.2241091695130355</v>
       </c>
       <c r="C69">
-        <v>0.2565637198254924</v>
+        <v>0.3112227034967246</v>
       </c>
       <c r="D69">
-        <v>0.2451048294328131</v>
+        <v>0.2522870865257215</v>
       </c>
       <c r="E69">
-        <v>0.1429234530070947</v>
+        <v>0.1871629396146359</v>
       </c>
       <c r="F69">
-        <v>0.07590674426741083</v>
+        <v>0.1022333082650753</v>
       </c>
       <c r="G69">
-        <v>-0.05965632195434952</v>
+        <v>-0.09893414864936187</v>
       </c>
       <c r="H69">
-        <v>-0.08653317632672099</v>
+        <v>-0.08559957960585063</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.02766649989259666</v>
+        <v>-0.683646271478348</v>
       </c>
       <c r="C70">
-        <v>0.04653638472570371</v>
+        <v>0.8958044030811576</v>
       </c>
       <c r="D70">
-        <v>0.03731314039930101</v>
+        <v>0.9862684257349179</v>
       </c>
       <c r="E70">
-        <v>0.03258704620182902</v>
+        <v>0.2269760999678383</v>
       </c>
       <c r="F70">
-        <v>0.02514184213656364</v>
+        <v>0.3330389192289789</v>
       </c>
       <c r="G70">
-        <v>-0.007326760717684534</v>
+        <v>-0.2552856984393395</v>
       </c>
       <c r="H70">
-        <v>-0.005030604508895914</v>
+        <v>-0.4922822162489157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2305323897586644</v>
+        <v>-0.003607391464373524</v>
       </c>
       <c r="C71">
-        <v>0.6210622776542157</v>
+        <v>0.005568030227772033</v>
       </c>
       <c r="D71">
-        <v>0.4155820445318786</v>
+        <v>0.004203654207579143</v>
       </c>
       <c r="E71">
-        <v>0.2120140911125601</v>
+        <v>0.003370961744296276</v>
       </c>
       <c r="F71">
-        <v>0.1663013150961805</v>
+        <v>0.002504316263647399</v>
       </c>
       <c r="G71">
-        <v>-0.212979509102198</v>
+        <v>-0.001600765682032719</v>
       </c>
       <c r="H71">
-        <v>-0.08789254922397008</v>
+        <v>-0.0007498025150003075</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.307736681379278</v>
+        <v>-0.3519648034098534</v>
       </c>
       <c r="C72">
-        <v>1.044783146735126</v>
+        <v>0.5718018338242824</v>
       </c>
       <c r="D72">
-        <v>0.7230976933575681</v>
+        <v>0.5881239872241572</v>
       </c>
       <c r="E72">
-        <v>0.02506298338674979</v>
+        <v>0.1135093321883724</v>
       </c>
       <c r="F72">
-        <v>0.2436278630012605</v>
+        <v>0.17622745201169</v>
       </c>
       <c r="G72">
-        <v>-0.7871336983587532</v>
+        <v>-0.3000935320248182</v>
       </c>
       <c r="H72">
-        <v>-0.3583434668325663</v>
+        <v>-0.328664922040147</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1590211925687225</v>
+        <v>-0.1460671281952551</v>
       </c>
       <c r="C73">
-        <v>0.2848306792354458</v>
+        <v>0.273359623207481</v>
       </c>
       <c r="D73">
-        <v>0.2360345195659311</v>
+        <v>0.2113095180963635</v>
       </c>
       <c r="E73">
-        <v>0.1622637396554165</v>
+        <v>0.1066014441234716</v>
       </c>
       <c r="F73">
-        <v>0.1196032850448012</v>
+        <v>0.1016526975735938</v>
       </c>
       <c r="G73">
-        <v>-0.06123485128078662</v>
+        <v>-0.1092397172323965</v>
       </c>
       <c r="H73">
-        <v>-0.06430729782804467</v>
+        <v>-0.06905079188153412</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.2905371564655122</v>
+        <v>-0.4580223936483465</v>
       </c>
       <c r="C74">
-        <v>0.6529879195232011</v>
+        <v>0.5033577465465888</v>
       </c>
       <c r="D74">
-        <v>0.7164700525890609</v>
+        <v>0.7609300385450497</v>
       </c>
       <c r="E74">
-        <v>0.1534908070920315</v>
+        <v>0.2292054708646807</v>
       </c>
       <c r="F74">
-        <v>0.150370482682093</v>
+        <v>0.3161476503483343</v>
       </c>
       <c r="G74">
-        <v>-0.3900685262572346</v>
+        <v>-0.2879537724390464</v>
       </c>
       <c r="H74">
-        <v>-0.3052537349747572</v>
+        <v>-0.2416137919271248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.2970212322115813</v>
+        <v>-0.003436723359485658</v>
       </c>
       <c r="C75">
-        <v>0.7223171879861152</v>
+        <v>0.005206461464240497</v>
       </c>
       <c r="D75">
-        <v>0.4917163491808451</v>
+        <v>0.004161200765302933</v>
       </c>
       <c r="E75">
-        <v>0.2266016590167314</v>
+        <v>0.002935333648285261</v>
       </c>
       <c r="F75">
-        <v>0.2399416415275173</v>
+        <v>0.002963888378522595</v>
       </c>
       <c r="G75">
-        <v>-0.3328988999775745</v>
+        <v>-0.001608578727070524</v>
       </c>
       <c r="H75">
-        <v>-0.3154958107177979</v>
+        <v>-0.001314088555098689</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.002853439321922577</v>
+        <v>-0.3862780407095407</v>
       </c>
       <c r="C76">
-        <v>0.004606503598315672</v>
+        <v>0.8735370878192341</v>
       </c>
       <c r="D76">
-        <v>0.004439697677123548</v>
+        <v>0.6794413831802314</v>
       </c>
       <c r="E76">
-        <v>0.002920049831761793</v>
+        <v>-0.0454393449568495</v>
       </c>
       <c r="F76">
-        <v>0.003102232160413896</v>
+        <v>0.08812252570678414</v>
       </c>
       <c r="G76">
-        <v>-0.0007625059935850882</v>
+        <v>-0.3991032885423624</v>
       </c>
       <c r="H76">
-        <v>-0.0003996682979221696</v>
+        <v>-0.2709630902139198</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.002458962692129048</v>
+        <v>-0.4856657597569933</v>
       </c>
       <c r="C77">
-        <v>0.004237527117963475</v>
+        <v>0.8250601218929168</v>
       </c>
       <c r="D77">
-        <v>0.004133372925585787</v>
+        <v>0.5521277076364229</v>
       </c>
       <c r="E77">
-        <v>0.003464042282672591</v>
+        <v>0.2741121743491952</v>
       </c>
       <c r="F77">
-        <v>0.002074777102441091</v>
+        <v>0.1272000534814501</v>
       </c>
       <c r="G77">
-        <v>-0.0007609204153345482</v>
+        <v>-0.2109293779088651</v>
       </c>
       <c r="H77">
-        <v>-0.0005359202016505923</v>
+        <v>-0.2747260951842724</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.1951191883051977</v>
+        <v>-0.4083375229901114</v>
       </c>
       <c r="C78">
-        <v>0.4519044651120696</v>
+        <v>0.6360777687715514</v>
       </c>
       <c r="D78">
-        <v>0.4737048221996311</v>
+        <v>0.533115959552624</v>
       </c>
       <c r="E78">
-        <v>0.1416081111864113</v>
+        <v>0.1141825917480466</v>
       </c>
       <c r="F78">
-        <v>0.2376417803354149</v>
+        <v>0.2693852742061835</v>
       </c>
       <c r="G78">
-        <v>-0.2291677214185665</v>
+        <v>-0.2512380115256306</v>
       </c>
       <c r="H78">
-        <v>-0.08718776028524712</v>
+        <v>-0.177489319836069</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3602330857093787</v>
+        <v>-0.002293524160917997</v>
       </c>
       <c r="C79">
-        <v>0.661319429704034</v>
+        <v>0.003657786727578047</v>
       </c>
       <c r="D79">
-        <v>0.431014262673261</v>
+        <v>0.003798826798426752</v>
       </c>
       <c r="E79">
-        <v>0.1949875698265442</v>
+        <v>0.002703544253501547</v>
       </c>
       <c r="F79">
-        <v>0.3402283402908396</v>
+        <v>0.001778302031950134</v>
       </c>
       <c r="G79">
-        <v>-0.2031136290294025</v>
+        <v>-0.001604928362694667</v>
       </c>
       <c r="H79">
-        <v>-0.2799335530407913</v>
+        <v>-0.001795438184312943</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.002269036842301658</v>
+        <v>-0.4679093337852188</v>
       </c>
       <c r="C80">
-        <v>0.00477985127555649</v>
+        <v>1.107040199338362</v>
       </c>
       <c r="D80">
-        <v>0.003395739353350493</v>
+        <v>0.6203277259762356</v>
       </c>
       <c r="E80">
-        <v>0.002467628294938966</v>
+        <v>0.04680534246109962</v>
       </c>
       <c r="F80">
-        <v>0.002391298922446356</v>
+        <v>0.04594964146309723</v>
       </c>
       <c r="G80">
-        <v>-0.00076119521992612</v>
+        <v>-0.3714056239229499</v>
       </c>
       <c r="H80">
-        <v>-0.001336434331444097</v>
+        <v>-0.1265306555610701</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.2617923583440125</v>
+        <v>-0.02557031867494448</v>
       </c>
       <c r="C81">
-        <v>0.5797284113867686</v>
+        <v>0.04343789946785534</v>
       </c>
       <c r="D81">
-        <v>0.8933464577650202</v>
+        <v>0.03518143399468265</v>
       </c>
       <c r="E81">
-        <v>0.1129745621605194</v>
+        <v>0.01866835912907043</v>
       </c>
       <c r="F81">
-        <v>0.247029911677825</v>
+        <v>0.02761568810855283</v>
       </c>
       <c r="G81">
-        <v>-0.549782729217021</v>
+        <v>-0.01540650887076039</v>
       </c>
       <c r="H81">
-        <v>-0.1129987474654216</v>
+        <v>-0.009168125861066849</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.00324078962773063</v>
+        <v>-0.3877029312658115</v>
       </c>
       <c r="C82">
-        <v>0.005634825295734137</v>
+        <v>0.6831391135824814</v>
       </c>
       <c r="D82">
-        <v>0.003908376176038887</v>
+        <v>0.4479101086922944</v>
       </c>
       <c r="E82">
-        <v>0.002966910572164564</v>
+        <v>0.2195877637894266</v>
       </c>
       <c r="F82">
-        <v>0.003149049129799497</v>
+        <v>0.298888504588111</v>
       </c>
       <c r="G82">
-        <v>-0.0007620463463999676</v>
+        <v>-0.2796117129413843</v>
       </c>
       <c r="H82">
-        <v>-0.0009785738555776913</v>
+        <v>-0.1711013616353974</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1784899791676025</v>
+        <v>-0.1349940000320578</v>
       </c>
       <c r="C83">
-        <v>0.8984234079719546</v>
+        <v>0.2572961008024697</v>
       </c>
       <c r="D83">
-        <v>0.8381113107577264</v>
+        <v>0.1710176642456649</v>
       </c>
       <c r="E83">
-        <v>0.09923145242098715</v>
+        <v>0.1420954903497933</v>
       </c>
       <c r="F83">
-        <v>0.3158688553151299</v>
+        <v>0.09314824932641505</v>
       </c>
       <c r="G83">
-        <v>-1.048466456103329</v>
+        <v>-0.1066755275570222</v>
       </c>
       <c r="H83">
-        <v>-0.2498989655078039</v>
+        <v>-0.1053527605872674</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1558354674138948</v>
+        <v>-0.002654651209207068</v>
       </c>
       <c r="C84">
-        <v>0.2616194855851911</v>
+        <v>0.004411202588245349</v>
       </c>
       <c r="D84">
-        <v>0.2658436931972596</v>
+        <v>0.003624133399676266</v>
       </c>
       <c r="E84">
-        <v>0.1439526649998341</v>
+        <v>0.002527004739312968</v>
       </c>
       <c r="F84">
-        <v>0.116431873665652</v>
+        <v>0.002984802797845009</v>
       </c>
       <c r="G84">
-        <v>-0.06736051879357723</v>
+        <v>-0.001602981914693728</v>
       </c>
       <c r="H84">
-        <v>-0.07718822949199505</v>
+        <v>-0.0008056593898180908</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2312913572257883</v>
+        <v>-0.00239189205580167</v>
       </c>
       <c r="C85">
-        <v>0.4453624346746823</v>
+        <v>0.004309497768346626</v>
       </c>
       <c r="D85">
-        <v>0.464073086178407</v>
+        <v>0.003813151219893028</v>
       </c>
       <c r="E85">
-        <v>0.2679894072713198</v>
+        <v>0.002325212123706726</v>
       </c>
       <c r="F85">
-        <v>0.2467841578387917</v>
+        <v>0.001955446856509256</v>
       </c>
       <c r="G85">
-        <v>-0.2130055187099247</v>
+        <v>-0.001604573107333503</v>
       </c>
       <c r="H85">
-        <v>-0.2267238815308156</v>
+        <v>-0.00101533858874035</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1589774604515499</v>
+        <v>-0.7209157024154859</v>
       </c>
       <c r="C86">
-        <v>0.2853165028457851</v>
+        <v>1.265201968280944</v>
       </c>
       <c r="D86">
-        <v>0.2204256500516889</v>
+        <v>0.4905745050962055</v>
       </c>
       <c r="E86">
-        <v>0.1649174045419348</v>
+        <v>0.4072415496377324</v>
       </c>
       <c r="F86">
-        <v>0.1066490948314227</v>
+        <v>0.123051932028869</v>
       </c>
       <c r="G86">
-        <v>-0.0555022618702047</v>
+        <v>-0.4486807633048808</v>
       </c>
       <c r="H86">
-        <v>-0.101179135702498</v>
+        <v>-0.5831540144905827</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.2301233152622422</v>
+        <v>-0.5463803277348578</v>
       </c>
       <c r="C87">
-        <v>1.112327488447516</v>
+        <v>0.9574885645908654</v>
       </c>
       <c r="D87">
-        <v>0.6521792666552654</v>
+        <v>0.7872648832475438</v>
       </c>
       <c r="E87">
-        <v>0.2087219102008232</v>
+        <v>-0.1315972207953727</v>
       </c>
       <c r="F87">
-        <v>0.07043001044064953</v>
+        <v>0.4108407421007453</v>
       </c>
       <c r="G87">
-        <v>-0.9009738465000872</v>
+        <v>-0.5633838271966446</v>
       </c>
       <c r="H87">
-        <v>-0.2647995591553247</v>
+        <v>-0.4197120826758263</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.3629611197687375</v>
+        <v>-0.02661240709453856</v>
       </c>
       <c r="C88">
-        <v>0.7394008026622767</v>
+        <v>0.04362049088766665</v>
       </c>
       <c r="D88">
-        <v>0.4947256533719903</v>
+        <v>0.04144563773368434</v>
       </c>
       <c r="E88">
-        <v>0.3616189364647842</v>
+        <v>0.022466638457314</v>
       </c>
       <c r="F88">
-        <v>0.2299165081316327</v>
+        <v>0.0195046308484231</v>
       </c>
       <c r="G88">
-        <v>-0.2333333402311331</v>
+        <v>-0.01503516478166409</v>
       </c>
       <c r="H88">
-        <v>0.0002502515463476288</v>
+        <v>-0.00215650264634771</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3409928449775315</v>
+        <v>-0.3790468965891205</v>
       </c>
       <c r="C89">
-        <v>0.693035298054921</v>
+        <v>0.5877725194067659</v>
       </c>
       <c r="D89">
-        <v>0.5471198898086903</v>
+        <v>0.5488174934384632</v>
       </c>
       <c r="E89">
-        <v>0.1250549275663903</v>
+        <v>0.1079588898302974</v>
       </c>
       <c r="F89">
-        <v>0.2193616463572606</v>
+        <v>0.1944613193695922</v>
       </c>
       <c r="G89">
-        <v>-0.2281657872145491</v>
+        <v>-0.2296675262480063</v>
       </c>
       <c r="H89">
-        <v>-0.08830846254109992</v>
+        <v>-0.1785264338338698</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3927599792269932</v>
+        <v>-0.002970432380579961</v>
       </c>
       <c r="C90">
-        <v>1.300071088933909</v>
+        <v>0.004795409697544395</v>
       </c>
       <c r="D90">
-        <v>0.8256652924831622</v>
+        <v>0.004013620415397661</v>
       </c>
       <c r="E90">
-        <v>0.280578853119092</v>
+        <v>0.002916697513923424</v>
       </c>
       <c r="F90">
-        <v>0.119452492620948</v>
+        <v>0.002071932314573537</v>
       </c>
       <c r="G90">
-        <v>-1.04158076624728</v>
+        <v>-0.001602873952314125</v>
       </c>
       <c r="H90">
-        <v>-0.2488377198868681</v>
+        <v>-0.001632428611588295</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.3265073188239527</v>
+        <v>-0.4661278819630685</v>
       </c>
       <c r="C91">
-        <v>0.7951489332921932</v>
+        <v>0.636808629383902</v>
       </c>
       <c r="D91">
-        <v>0.899269129684594</v>
+        <v>0.5682839211903066</v>
       </c>
       <c r="E91">
-        <v>-0.06196453715666024</v>
+        <v>0.2133670414697987</v>
       </c>
       <c r="F91">
-        <v>0.4601946408298723</v>
+        <v>0.2884097914001825</v>
       </c>
       <c r="G91">
-        <v>-0.6355509865303217</v>
+        <v>-0.2592552505522429</v>
       </c>
       <c r="H91">
-        <v>-0.2114233231751254</v>
+        <v>-0.04935191304244428</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.02118883203594966</v>
+        <v>-0.003065598096619211</v>
       </c>
       <c r="C92">
-        <v>0.04130916831544032</v>
+        <v>0.004837101948077259</v>
       </c>
       <c r="D92">
-        <v>0.03922108146989578</v>
+        <v>0.004512897279338694</v>
       </c>
       <c r="E92">
-        <v>0.02284688931774417</v>
+        <v>0.002869354176808623</v>
       </c>
       <c r="F92">
-        <v>0.01851911812878484</v>
+        <v>0.001903800583360111</v>
       </c>
       <c r="G92">
-        <v>-0.007502813340519805</v>
+        <v>-0.001599369521402077</v>
       </c>
       <c r="H92">
-        <v>-0.008662681904720802</v>
+        <v>-0.0008763759972568819</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.1832329401151679</v>
+        <v>-0.5060464749904218</v>
       </c>
       <c r="C93">
-        <v>0.2872493064693574</v>
+        <v>0.8774216038804173</v>
       </c>
       <c r="D93">
-        <v>0.2578247237940634</v>
+        <v>0.897696569806514</v>
       </c>
       <c r="E93">
-        <v>0.1358109634657945</v>
+        <v>-0.01072268740233181</v>
       </c>
       <c r="F93">
-        <v>0.1160645699668252</v>
+        <v>0.07319703480587546</v>
       </c>
       <c r="G93">
-        <v>-0.06928961196907442</v>
+        <v>-0.3681594164867688</v>
       </c>
       <c r="H93">
-        <v>-0.1375311945620771</v>
+        <v>-0.1774520975839697</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.157637390840797</v>
+        <v>-0.1686440378030361</v>
       </c>
       <c r="C94">
-        <v>0.2897385143154189</v>
+        <v>0.3010415093015654</v>
       </c>
       <c r="D94">
-        <v>0.2196615746512005</v>
+        <v>0.1942807187506044</v>
       </c>
       <c r="E94">
-        <v>0.1635196496896558</v>
+        <v>0.09695178339541094</v>
       </c>
       <c r="F94">
-        <v>0.1232374941076133</v>
+        <v>0.1335418600034334</v>
       </c>
       <c r="G94">
-        <v>-0.06197097353773622</v>
+        <v>-0.1084124847486099</v>
       </c>
       <c r="H94">
-        <v>-0.07420773778778382</v>
+        <v>-0.09503015403890068</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.2687825546884207</v>
+        <v>-0.4186279448611897</v>
       </c>
       <c r="C95">
-        <v>0.795584743395133</v>
+        <v>0.7157785624388422</v>
       </c>
       <c r="D95">
-        <v>0.9956333688186059</v>
+        <v>0.7145750276463484</v>
       </c>
       <c r="E95">
-        <v>0.08764308123905781</v>
+        <v>0.1666021670621211</v>
       </c>
       <c r="F95">
-        <v>0.3441941907511588</v>
+        <v>0.1217202224831174</v>
       </c>
       <c r="G95">
-        <v>-0.8950878497284128</v>
+        <v>-0.2778533489984698</v>
       </c>
       <c r="H95">
-        <v>-0.3723963578509382</v>
+        <v>-0.4808117255851759</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.240735297841123</v>
+        <v>-0.4950909234275974</v>
       </c>
       <c r="C96">
-        <v>0.5684248063781417</v>
+        <v>1.021682712384314</v>
       </c>
       <c r="D96">
-        <v>0.6751284517352514</v>
+        <v>0.5199157640889505</v>
       </c>
       <c r="E96">
-        <v>0.1368829411215563</v>
+        <v>0.2059260014804339</v>
       </c>
       <c r="F96">
-        <v>0.3248794949758759</v>
+        <v>0.2418586383000222</v>
       </c>
       <c r="G96">
-        <v>-0.3684019027537328</v>
+        <v>-0.3188794614935284</v>
       </c>
       <c r="H96">
-        <v>-0.1909838770313041</v>
+        <v>-0.1664727711794104</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2941585715569766</v>
+        <v>-0.1582799120047862</v>
       </c>
       <c r="C97">
-        <v>0.7829582414840233</v>
+        <v>0.2238436973593004</v>
       </c>
       <c r="D97">
-        <v>0.7471448896159122</v>
+        <v>0.2827902404315364</v>
       </c>
       <c r="E97">
-        <v>0.2436542549511567</v>
+        <v>0.1268133590444308</v>
       </c>
       <c r="F97">
-        <v>0.3407919444638162</v>
+        <v>0.06961899217007694</v>
       </c>
       <c r="G97">
-        <v>-0.6256830746667063</v>
+        <v>-0.1050699579184626</v>
       </c>
       <c r="H97">
-        <v>-0.2230860643249257</v>
+        <v>-0.08382492097269993</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2381385395118925</v>
+        <v>-0.7630516989281027</v>
       </c>
       <c r="C98">
-        <v>0.7889318068839141</v>
+        <v>0.8660947562396033</v>
       </c>
       <c r="D98">
-        <v>0.7335161117689721</v>
+        <v>1.192948439506805</v>
       </c>
       <c r="E98">
-        <v>0.1445156125410869</v>
+        <v>0.1979199883995237</v>
       </c>
       <c r="F98">
-        <v>0.1400251562965927</v>
+        <v>0.3349242297917936</v>
       </c>
       <c r="G98">
-        <v>-0.6111339678573428</v>
+        <v>-0.5603842945775631</v>
       </c>
       <c r="H98">
-        <v>-0.3235521960631139</v>
+        <v>-0.5402245595913585</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.002347140033119671</v>
+        <v>-0.2691709535111285</v>
       </c>
       <c r="C99">
-        <v>0.004259425534107213</v>
+        <v>0.5090272904949332</v>
       </c>
       <c r="D99">
-        <v>0.004612447103636645</v>
+        <v>0.4249927630750175</v>
       </c>
       <c r="E99">
-        <v>0.002092683100821042</v>
+        <v>0.1515127445091355</v>
       </c>
       <c r="F99">
-        <v>0.002318572311793528</v>
+        <v>0.1561121645722787</v>
       </c>
       <c r="G99">
-        <v>-0.0007607965376457599</v>
+        <v>-0.2394594365102339</v>
       </c>
       <c r="H99">
-        <v>-0.0005480767111120822</v>
+        <v>-0.1840900869815733</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2604020985374438</v>
+        <v>-0.1716320399771086</v>
       </c>
       <c r="C100">
-        <v>0.7835507042460617</v>
+        <v>0.2647012501931243</v>
       </c>
       <c r="D100">
-        <v>0.7726195319908512</v>
+        <v>0.2513583400495422</v>
       </c>
       <c r="E100">
-        <v>0.2807578146785296</v>
+        <v>0.1292065342047215</v>
       </c>
       <c r="F100">
-        <v>0.04657589496520739</v>
+        <v>0.1094144135021993</v>
       </c>
       <c r="G100">
-        <v>-0.6577495484449548</v>
+        <v>-0.1027928955719715</v>
       </c>
       <c r="H100">
-        <v>-0.4618235498153778</v>
+        <v>-0.07538353056794049</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.002538755733354402</v>
+        <v>-0.3481134557309752</v>
       </c>
       <c r="C101">
-        <v>0.004480545859511278</v>
+        <v>0.6132471614917109</v>
       </c>
       <c r="D101">
-        <v>0.00389616051005867</v>
+        <v>0.4633763772403163</v>
       </c>
       <c r="E101">
-        <v>0.003426000758204794</v>
+        <v>0.1014269596777532</v>
       </c>
       <c r="F101">
-        <v>0.002393995959989313</v>
+        <v>0.1638711086646631</v>
       </c>
       <c r="G101">
-        <v>-0.0007598312187108891</v>
+        <v>-0.2668318900387885</v>
       </c>
       <c r="H101">
-        <v>-0.0007107575047159826</v>
+        <v>-0.2818107682544227</v>
       </c>
     </row>
   </sheetData>
